--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H2">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I2">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J2">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.55727433333333</v>
+        <v>10.858287</v>
       </c>
       <c r="N2">
-        <v>34.671823</v>
+        <v>32.574861</v>
       </c>
       <c r="O2">
-        <v>0.5239815261112396</v>
+        <v>0.5084025289165609</v>
       </c>
       <c r="P2">
-        <v>0.5239815261112395</v>
+        <v>0.508402528916561</v>
       </c>
       <c r="Q2">
-        <v>2.669776600097333</v>
+        <v>3.244904964796</v>
       </c>
       <c r="R2">
-        <v>24.027989400876</v>
+        <v>29.204144683164</v>
       </c>
       <c r="S2">
-        <v>0.1603747521226423</v>
+        <v>0.1847011900487169</v>
       </c>
       <c r="T2">
-        <v>0.1603747521226422</v>
+        <v>0.184701190048717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H3">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.284314</v>
       </c>
       <c r="O3">
-        <v>0.004296724853919303</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="P3">
-        <v>0.004296724853919302</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="Q3">
-        <v>0.02189255708533333</v>
+        <v>0.02832159161511111</v>
       </c>
       <c r="R3">
-        <v>0.1970330137679999</v>
+        <v>0.254894324536</v>
       </c>
       <c r="S3">
-        <v>0.00131509633269058</v>
+        <v>0.001612075463576373</v>
       </c>
       <c r="T3">
-        <v>0.001315096332690579</v>
+        <v>0.001612075463576373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H4">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>31.213797</v>
       </c>
       <c r="O4">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="P4">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="Q4">
-        <v>2.403503987396</v>
+        <v>3.109324237958667</v>
       </c>
       <c r="R4">
-        <v>21.631535886564</v>
+        <v>27.983918141628</v>
       </c>
       <c r="S4">
-        <v>0.1443796294380447</v>
+        <v>0.1769838849608313</v>
       </c>
       <c r="T4">
-        <v>0.1443796294380446</v>
+        <v>0.1769838849608313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.155575</v>
       </c>
       <c r="I5">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J5">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.55727433333333</v>
+        <v>10.858287</v>
       </c>
       <c r="N5">
-        <v>34.671823</v>
+        <v>32.574861</v>
       </c>
       <c r="O5">
-        <v>0.5239815261112396</v>
+        <v>0.5084025289165609</v>
       </c>
       <c r="P5">
-        <v>0.5239815261112395</v>
+        <v>0.508402528916561</v>
       </c>
       <c r="Q5">
-        <v>4.451765762580556</v>
+        <v>4.182521666674999</v>
       </c>
       <c r="R5">
-        <v>40.065891863225</v>
+        <v>37.642695000075</v>
       </c>
       <c r="S5">
-        <v>0.267419689968027</v>
+        <v>0.2380706793019998</v>
       </c>
       <c r="T5">
-        <v>0.2674196899680269</v>
+        <v>0.2380706793019998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.155575</v>
       </c>
       <c r="I6">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J6">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.284314</v>
       </c>
       <c r="O6">
-        <v>0.004296724853919303</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="P6">
-        <v>0.004296724853919302</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="Q6">
         <v>0.03650512783888888</v>
@@ -818,10 +818,10 @@
         <v>0.32854615055</v>
       </c>
       <c r="S6">
-        <v>0.002192880418591477</v>
+        <v>0.002077885370410906</v>
       </c>
       <c r="T6">
-        <v>0.002192880418591477</v>
+        <v>0.002077885370410906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.155575</v>
       </c>
       <c r="I7">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J7">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>31.213797</v>
       </c>
       <c r="O7">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="P7">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="Q7">
         <v>4.007764829808333</v>
@@ -880,10 +880,10 @@
         <v>36.069883468275</v>
       </c>
       <c r="S7">
-        <v>0.240748342435439</v>
+        <v>0.2281234555501165</v>
       </c>
       <c r="T7">
-        <v>0.240748342435439</v>
+        <v>0.2281234555501165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.415644</v>
       </c>
       <c r="I8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.55727433333333</v>
+        <v>10.858287</v>
       </c>
       <c r="N8">
-        <v>34.671823</v>
+        <v>32.574861</v>
       </c>
       <c r="O8">
-        <v>0.5239815261112396</v>
+        <v>0.5084025289165609</v>
       </c>
       <c r="P8">
-        <v>0.5239815261112395</v>
+        <v>0.508402528916561</v>
       </c>
       <c r="Q8">
-        <v>1.601237244334667</v>
+        <v>1.504393947276</v>
       </c>
       <c r="R8">
-        <v>14.411135199012</v>
+        <v>13.539545525484</v>
       </c>
       <c r="S8">
-        <v>0.09618708402057037</v>
+        <v>0.08563065956584419</v>
       </c>
       <c r="T8">
-        <v>0.09618708402057034</v>
+        <v>0.0856306595658442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.415644</v>
       </c>
       <c r="I9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.284314</v>
       </c>
       <c r="O9">
-        <v>0.004296724853919303</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="P9">
-        <v>0.004296724853919302</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="Q9">
         <v>0.01313037869066666</v>
@@ -1004,10 +1004,10 @@
         <v>0.118173408216</v>
       </c>
       <c r="S9">
-        <v>0.0007887481026372463</v>
+        <v>0.0007473860086096277</v>
       </c>
       <c r="T9">
-        <v>0.0007887481026372462</v>
+        <v>0.0007473860086096277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.415644</v>
       </c>
       <c r="I10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>31.213797</v>
       </c>
       <c r="O10">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="P10">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="Q10">
         <v>1.441536382252</v>
@@ -1066,10 +1066,10 @@
         <v>12.973827440268</v>
       </c>
       <c r="S10">
-        <v>0.08659377716135741</v>
+        <v>0.08205278372989432</v>
       </c>
       <c r="T10">
-        <v>0.08659377716135741</v>
+        <v>0.08205278372989433</v>
       </c>
     </row>
   </sheetData>
